--- a/assets/pierre-ia.org/files/_metadata.xlsx
+++ b/assets/pierre-ia.org/files/_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charnould/Desktop/proprietary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charnould/GitHub/pierre/assets/pierre-ia.org/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4CBC1F-720A-034B-B778-79DDD937CE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B5F8ED-695D-184E-B73A-7F4F8411FBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E5B0FB10-8797-D243-A0FA-6D923D5CC0EA}"/>
   </bookViews>
@@ -39,16 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
-  <si>
-    <t>test-markdown-file.md</t>
-  </si>
-  <si>
-    <t>test-excel-file.xlsx</t>
-  </si>
-  <si>
-    <t>test-word-file.docx</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>private</t>
   </si>
@@ -59,69 +50,136 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Ci-après la procédure et la répartition des responsabilités entre la société de télésurveillance et l'agent/cadre d'astreinte chez Pierre Habitat :</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Indiquer l'onglet concerné.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Doit correspondre </t>
+    <t>Ci-après la description et les caractéristiques techniques d'une résidence de Pierre Habitat :</t>
+  </si>
+  <si>
+    <t>Ci-après les noms et coordonnées des collaborateurs en charge des résidences chez Pierre Habitat :</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>chunk</t>
+  </si>
+  <si>
+    <t>group_by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Indiquer à quelle ligne se trouve la ligne d'en-têtes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Indiquer l'onglet concerné.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Parfois, il est pertinent de considérer un fichier Excel non pas ligne à ligne, mais comme un bloc. Mettre « false » pour que le tableau soit stocké en un bloc.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Doit correspondre </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>précisément</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> au chemin d'accès du fichier. Respecter les espaces et la casse.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Applicable uniquement aux fichiers .XLSX (Excel). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sans effet pour les fichiers .DOCX (Word) et .MD (Markdown).</t>
-    </r>
-  </si>
-  <si>
-    <t>Parfois, il est davantage pertinent de considérer un fichier Excel non pas ligne par ligne, mais dans son ensemble.
-Mettre « false » pour que le tableau ne soit PAS segmenté, mais stocké en un seul « bloc ».</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>exactement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> au nom du fichier uploadé. Respecter les espaces et la casse.</t>
+    </r>
   </si>
   <si>
     <r>
       <t xml:space="preserve">
-Optionnel, mais </t>
+Le contenu du fichier est-il </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>privé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ou </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Optionnel.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Quelle colonne peut-on utiliser pour grouper les résultats ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Optionnel mais </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -130,7 +188,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -141,7 +198,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -149,128 +205,31 @@
     </r>
   </si>
   <si>
-    <t>Ci-après la description et les caractéristiques techniques d'une résidence de Pierre Habitat :</t>
-  </si>
-  <si>
-    <t>Ci-après les noms et coordonnées des collaborateurs en charge des résidences chez Pierre Habitat :</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Le contenu du fichier est-il </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="7" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>privé</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (accessible avec un mot de passe) ou </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="7" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>public</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (accessible sans) ?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Indiquer à quelle ligne se trouve la ligne d'en-têtes (ex : pour ce fichier, la ligne d'entête est la 3).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Si vous avez renseigné </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>building</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ou </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>process</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> en colonne G, indiquer ici quelle est la colonne de l'entité (A = 1, B = 2, etc.)</t>
-    </r>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>access</t>
-  </si>
-  <si>
-    <t>sheet</t>
-  </si>
-  <si>
-    <t>headers</t>
-  </si>
-  <si>
-    <t>chunk</t>
-  </si>
-  <si>
-    <t>group_by</t>
-  </si>
-  <si>
-    <t>Ci-après les astreintes chez Pierre Habitat :</t>
+    <r>
+      <t xml:space="preserve">Applicable uniquement aux fichiers .XLSX (Excel). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sans effet pour les fichiers .DOCX (Word) et .MD (Markdown).</t>
+    </r>
+  </si>
+  <si>
+    <t>exemple.xlsx</t>
+  </si>
+  <si>
+    <t>exemple.docx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,99 +238,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="7" tint="-0.499984740745262"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,24 +294,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -417,6 +301,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,34 +331,34 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -799,87 +695,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3359B2-613C-1246-BB58-A3F329ACACAC}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="55.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="102.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="202" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -891,18 +786,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -914,69 +809,18 @@
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -988,14 +832,14 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1000:F1678 D4:D1678" xr:uid="{49006576-7484-B84D-A51B-69FE1DA1041A}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F997:F1675 D4:D1675" xr:uid="{49006576-7484-B84D-A51B-69FE1DA1041A}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B1048576" xr:uid="{2D33CDDD-82FD-DF49-92A6-98CA2408197D}">
       <formula1>"private,public"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F999" xr:uid="{1B35C915-B844-3A4E-8381-4D4F9C183493}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F996" xr:uid="{1B35C915-B844-3A4E-8381-4D4F9C183493}">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
